--- a/detection/Book1.xlsx
+++ b/detection/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5dc4c9461218192d/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tmyhh\hackathon\detection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{69881621-B956-4A7F-94C5-1D50957B9EDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21877FBB-2CA6-41CE-8755-A3D9E8EA6822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{573A7BD3-1AB8-47E2-A367-FC3CACE56777}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{573A7BD3-1AB8-47E2-A367-FC3CACE56777}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="25">
   <si>
     <t>日付</t>
   </si>
@@ -117,7 +117,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +152,13 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -255,7 +262,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -297,6 +304,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -634,13 +647,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B18F8018-2347-4C1C-BA30-9262AFE2C075}">
   <dimension ref="A1:X60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30:R31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18.600000000000001" customHeight="1" thickBot="1">
+    <row r="1" spans="1:24" ht="18.600000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -659,40 +675,24 @@
         <v>4</v>
       </c>
       <c r="H1" s="11"/>
-      <c r="I1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="L1" s="11"/>
-      <c r="M1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="11"/>
-      <c r="O1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="11"/>
-      <c r="S1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="11"/>
-      <c r="U1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" s="11"/>
-      <c r="W1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="X1" s="11"/>
-    </row>
-    <row r="2" spans="1:24" ht="18.600000000000001" thickBot="1">
+      <c r="I1" s="15" ph="1"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="14"/>
+      <c r="V1" s="14"/>
+      <c r="W1" s="14"/>
+      <c r="X1" s="14"/>
+    </row>
+    <row r="2" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A2" s="13"/>
       <c r="B2" s="13"/>
       <c r="C2" s="1" t="s">
@@ -713,9 +713,7 @@
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="I2" s="14"/>
       <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
@@ -762,7 +760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="18.600000000000001" thickBot="1">
+    <row r="3" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="6"/>
@@ -771,14 +769,14 @@
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
+      <c r="I3" s="14"/>
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
     </row>
-    <row r="4" spans="1:24" ht="18.600000000000001" thickBot="1">
+    <row r="4" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="6"/>
@@ -787,19 +785,20 @@
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="I4" s="14"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" ht="18.600000000000001" customHeight="1">
+      <c r="I5" s="14"/>
+    </row>
+    <row r="6" spans="1:24" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -840,7 +839,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.4">
       <c r="C7" t="s">
         <v>13</v>
       </c>
@@ -908,7 +907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>45748</v>
       </c>
@@ -936,9 +935,6 @@
       <c r="I8" s="5">
         <v>0.54166666666666663</v>
       </c>
-      <c r="J8" s="5">
-        <v>0.84027777777777779</v>
-      </c>
       <c r="K8" s="5">
         <v>0.63472222222222219</v>
       </c>
@@ -952,7 +948,7 @@
         <v>0.76527777777777783</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>45749</v>
       </c>
@@ -980,9 +976,6 @@
       <c r="I9" s="5">
         <v>0.38194444444444442</v>
       </c>
-      <c r="J9" s="5">
-        <v>0.80069444444444438</v>
-      </c>
       <c r="K9" s="5">
         <v>0.39583333333333331</v>
       </c>
@@ -1008,7 +1001,7 @@
         <v>0.80069444444444438</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>45750</v>
       </c>
@@ -1030,9 +1023,6 @@
       <c r="I10" s="5">
         <v>0.44791666666666669</v>
       </c>
-      <c r="J10" s="5">
-        <v>0.79305555555555562</v>
-      </c>
       <c r="K10" s="5">
         <v>0.50902777777777775</v>
       </c>
@@ -1052,7 +1042,7 @@
         <v>0.65625</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>45751</v>
       </c>
@@ -1090,7 +1080,7 @@
         <v>0.82916666666666661</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>45752</v>
       </c>
@@ -1101,7 +1091,7 @@
         <v>0.30763888888888891</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>45753</v>
       </c>
@@ -1109,7 +1099,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>45754</v>
       </c>
@@ -1135,10 +1125,7 @@
         <v>0.83680555555555547</v>
       </c>
       <c r="I14" s="5">
-        <v>0.54513888888888895</v>
-      </c>
-      <c r="J14" s="5">
-        <v>0.73888888888888893</v>
+        <v>0.50347222222222221</v>
       </c>
       <c r="K14" s="5">
         <v>0.50972222222222219</v>
@@ -1183,7 +1170,7 @@
         <v>0.50694444444444442</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>45755</v>
       </c>
@@ -1206,9 +1193,6 @@
       <c r="I15" s="5">
         <v>0.4069444444444445</v>
       </c>
-      <c r="J15" s="5">
-        <v>0.77777777777777779</v>
-      </c>
       <c r="K15" s="5">
         <v>0.52777777777777779</v>
       </c>
@@ -1240,7 +1224,7 @@
         <v>0.52777777777777779</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>45756</v>
       </c>
@@ -1268,9 +1252,6 @@
       <c r="I16" s="5">
         <v>0.45555555555555555</v>
       </c>
-      <c r="J16" s="5">
-        <v>0.86249999999999993</v>
-      </c>
       <c r="K16" s="5">
         <v>0.53402777777777777</v>
       </c>
@@ -1302,7 +1283,7 @@
         <v>0.4861111111111111</v>
       </c>
     </row>
-    <row r="17" spans="1:24">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <v>45757</v>
       </c>
@@ -1328,10 +1309,7 @@
         <v>0.80902777777777779</v>
       </c>
       <c r="I17" s="5">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="J17" s="5">
-        <v>0.75902777777777775</v>
+        <v>0.40069444444444446</v>
       </c>
       <c r="K17" s="5">
         <v>0.48055555555555557</v>
@@ -1364,7 +1342,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="18" spans="1:24">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <v>45758</v>
       </c>
@@ -1383,6 +1361,9 @@
       <c r="H18" s="5">
         <v>0.81527777777777777</v>
       </c>
+      <c r="I18" s="5">
+        <v>0.42708333333333331</v>
+      </c>
       <c r="K18" s="5">
         <v>0.43472222222222223</v>
       </c>
@@ -1414,7 +1395,7 @@
         <v>0.51041666666666663</v>
       </c>
     </row>
-    <row r="19" spans="1:24">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <v>45759</v>
       </c>
@@ -1422,7 +1403,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:24">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <v>45760</v>
       </c>
@@ -1430,7 +1411,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:24">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <v>45761</v>
       </c>
@@ -1458,9 +1439,6 @@
       <c r="I21" s="5">
         <v>0.5131944444444444</v>
       </c>
-      <c r="J21" s="5">
-        <v>0.75208333333333333</v>
-      </c>
       <c r="K21" s="5">
         <v>0.51041666666666663</v>
       </c>
@@ -1492,7 +1470,7 @@
         <v>0.4861111111111111</v>
       </c>
     </row>
-    <row r="22" spans="1:24">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <v>45762</v>
       </c>
@@ -1518,10 +1496,7 @@
         <v>0.74513888888888891</v>
       </c>
       <c r="I22" s="5">
-        <v>0.49513888888888885</v>
-      </c>
-      <c r="J22" s="5">
-        <v>0.84375</v>
+        <v>0.52500000000000002</v>
       </c>
       <c r="K22" s="5">
         <v>0.52916666666666667</v>
@@ -1554,7 +1529,7 @@
         <v>0.51388888888888895</v>
       </c>
     </row>
-    <row r="23" spans="1:24">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <v>45763</v>
       </c>
@@ -1580,10 +1555,7 @@
         <v>0.84027777777777779</v>
       </c>
       <c r="I23" s="5">
-        <v>0.45</v>
-      </c>
-      <c r="J23" s="5">
-        <v>0.87430555555555556</v>
+        <v>0.49513888888888885</v>
       </c>
       <c r="K23" s="5">
         <v>0.4291666666666667</v>
@@ -1603,12 +1575,6 @@
       <c r="P23" s="5">
         <v>0.7402777777777777</v>
       </c>
-      <c r="Q23" s="5">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="R23" s="5">
-        <v>0.86805555555555547</v>
-      </c>
       <c r="S23" s="5">
         <v>0.43888888888888888</v>
       </c>
@@ -1622,7 +1588,7 @@
         <v>0.51041666666666663</v>
       </c>
     </row>
-    <row r="24" spans="1:24">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <v>45764</v>
       </c>
@@ -1642,10 +1608,7 @@
         <v>0.72430555555555554</v>
       </c>
       <c r="I24" s="5">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="J24" s="5">
-        <v>0.7055555555555556</v>
+        <v>0.45</v>
       </c>
       <c r="K24" s="5">
         <v>0.53888888888888886</v>
@@ -1666,10 +1629,10 @@
         <v>0.6694444444444444</v>
       </c>
       <c r="Q24" s="5">
-        <v>0.51041666666666663</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="R24" s="5">
-        <v>0.52083333333333337</v>
+        <v>0.86805555555555547</v>
       </c>
       <c r="S24" s="5">
         <v>0.52083333333333337</v>
@@ -1678,7 +1641,7 @@
         <v>0.81111111111111101</v>
       </c>
     </row>
-    <row r="25" spans="1:24">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <v>45765</v>
       </c>
@@ -1703,6 +1666,9 @@
       <c r="H25" s="5">
         <v>0.55625000000000002</v>
       </c>
+      <c r="I25" s="5">
+        <v>0.51041666666666663</v>
+      </c>
       <c r="K25" s="5">
         <v>0.51111111111111118</v>
       </c>
@@ -1722,7 +1688,7 @@
         <v>0.61249999999999993</v>
       </c>
       <c r="Q25" s="5">
-        <v>0.34722222222222227</v>
+        <v>0.51041666666666663</v>
       </c>
       <c r="R25" s="5">
         <v>0.52083333333333337</v>
@@ -1734,7 +1700,7 @@
         <v>0.71666666666666667</v>
       </c>
     </row>
-    <row r="26" spans="1:24">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <v>45766</v>
       </c>
@@ -1742,7 +1708,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:24">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <v>45767</v>
       </c>
@@ -1758,9 +1724,6 @@
       <c r="I27" s="5">
         <v>0.36249999999999999</v>
       </c>
-      <c r="J27" s="5">
-        <v>0.75138888888888899</v>
-      </c>
       <c r="K27" s="5">
         <v>0.50972222222222219</v>
       </c>
@@ -1798,7 +1761,7 @@
         <v>0.51736111111111105</v>
       </c>
     </row>
-    <row r="28" spans="1:24">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <v>45768</v>
       </c>
@@ -1826,9 +1789,6 @@
       <c r="I28" s="5">
         <v>0.42638888888888887</v>
       </c>
-      <c r="J28" s="5">
-        <v>0.77361111111111114</v>
-      </c>
       <c r="K28" s="5">
         <v>0.61458333333333337</v>
       </c>
@@ -1847,12 +1807,8 @@
       <c r="P28" s="5">
         <v>0.65972222222222221</v>
       </c>
-      <c r="Q28" s="5">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="R28" s="5">
-        <v>0.83958333333333324</v>
-      </c>
+      <c r="Q28" s="5"/>
+      <c r="R28" s="5"/>
       <c r="S28" s="5">
         <v>0.4513888888888889</v>
       </c>
@@ -1872,7 +1828,7 @@
         <v>0.54166666666666663</v>
       </c>
     </row>
-    <row r="29" spans="1:24">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <v>45769</v>
       </c>
@@ -1900,9 +1856,6 @@
       <c r="I29" s="5">
         <v>0.44027777777777777</v>
       </c>
-      <c r="J29" s="5">
-        <v>0.8256944444444444</v>
-      </c>
       <c r="K29" s="5">
         <v>0.53194444444444444</v>
       </c>
@@ -1921,12 +1874,8 @@
       <c r="P29" s="5">
         <v>0.61458333333333337</v>
       </c>
-      <c r="Q29" s="5">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="R29" s="5">
-        <v>0.83958333333333324</v>
-      </c>
+      <c r="Q29" s="5"/>
+      <c r="R29" s="5"/>
       <c r="S29" s="5">
         <v>0.4375</v>
       </c>
@@ -1946,7 +1895,7 @@
         <v>0.72569444444444453</v>
       </c>
     </row>
-    <row r="30" spans="1:24">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <v>45770</v>
       </c>
@@ -1966,9 +1915,6 @@
       <c r="I30" s="5">
         <v>0.42777777777777781</v>
       </c>
-      <c r="J30" s="5">
-        <v>0.71250000000000002</v>
-      </c>
       <c r="K30" s="5">
         <v>0.5</v>
       </c>
@@ -2012,7 +1958,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <v>45771</v>
       </c>
@@ -2040,9 +1986,6 @@
       <c r="I31" s="5">
         <v>0.43472222222222223</v>
       </c>
-      <c r="J31" s="5">
-        <v>0.71250000000000002</v>
-      </c>
       <c r="K31" s="5">
         <v>0.43055555555555558</v>
       </c>
@@ -2077,7 +2020,7 @@
         <v>0.52430555555555558</v>
       </c>
     </row>
-    <row r="32" spans="1:24">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <v>45772</v>
       </c>
@@ -2097,7 +2040,7 @@
         <v>0.73611111111111116</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <v>45773</v>
       </c>
@@ -2105,7 +2048,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <v>45774</v>
       </c>
@@ -2113,7 +2056,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <v>45775</v>
       </c>
@@ -2121,7 +2064,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <v>45776</v>
       </c>
@@ -2129,7 +2072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <v>45777</v>
       </c>
@@ -2137,17 +2080,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="39" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="40" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="6"/>
@@ -2161,7 +2104,7 @@
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
     </row>
-    <row r="41" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="41" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="6"/>
@@ -2175,7 +2118,7 @@
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
     </row>
-    <row r="42" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="42" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -2189,7 +2132,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
     </row>
-    <row r="43" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="43" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -2203,7 +2146,7 @@
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
     </row>
-    <row r="44" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="44" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -2217,7 +2160,7 @@
       <c r="K44" s="8"/>
       <c r="L44" s="8"/>
     </row>
-    <row r="45" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="45" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A45" s="3"/>
       <c r="B45" s="4"/>
       <c r="C45" s="6"/>
@@ -2231,7 +2174,7 @@
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
     </row>
-    <row r="46" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="46" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="6"/>
@@ -2245,7 +2188,7 @@
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
     </row>
-    <row r="47" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="47" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="6"/>
@@ -2259,7 +2202,7 @@
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
     </row>
-    <row r="48" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="48" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A48" s="3"/>
       <c r="B48" s="4"/>
       <c r="C48" s="6"/>
@@ -2273,7 +2216,7 @@
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
     </row>
-    <row r="49" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="49" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="6"/>
@@ -2287,7 +2230,7 @@
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
     </row>
-    <row r="50" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="50" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -2301,7 +2244,7 @@
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
     </row>
-    <row r="51" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="51" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -2315,7 +2258,7 @@
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
     </row>
-    <row r="52" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="52" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="6"/>
@@ -2329,7 +2272,7 @@
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
     </row>
-    <row r="53" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="53" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="6"/>
@@ -2343,7 +2286,7 @@
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
     </row>
-    <row r="54" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="54" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="6"/>
@@ -2357,7 +2300,7 @@
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
     </row>
-    <row r="55" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="55" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="6"/>
@@ -2371,7 +2314,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
     </row>
-    <row r="56" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="56" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="6"/>
@@ -2385,7 +2328,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
     </row>
-    <row r="57" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="57" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -2399,7 +2342,7 @@
       <c r="K57" s="8"/>
       <c r="L57" s="8"/>
     </row>
-    <row r="58" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="58" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="9"/>
@@ -2413,7 +2356,7 @@
       <c r="K58" s="9"/>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="59" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="6"/>
@@ -2427,7 +2370,7 @@
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
     </row>
-    <row r="60" spans="1:12" ht="18.600000000000001" thickBot="1">
+    <row r="60" spans="1:12" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="6"/>
@@ -2442,20 +2385,12 @@
       <c r="L60" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="K1:L1"/>
-    <mergeCell ref="M1:N1"/>
+  <mergeCells count="5">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="S1:T1"/>
-    <mergeCell ref="U1:V1"/>
-    <mergeCell ref="W1:X1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
